--- a/server/nalog.xlsx
+++ b/server/nalog.xlsx
@@ -11,14 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
-  <si>
-    <t>Predmet: naziv predmeta sa sifrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    NALOG ZA ISPLATU 
-Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. 
-Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+  <si>
+    <r>
+      <t>Predmet:</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t xml:space="preserve"> Puni naziv predmeta PRE101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+      </rPr>
+      <t xml:space="preserve">NALOG ZA ISPLATU </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur.Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.  </t>
+    </r>
   </si>
   <si>
     <t>Katedra</t>
@@ -42,22 +58,73 @@
     <t>br sati predviđen programom</t>
   </si>
   <si>
-    <t xml:space="preserve">Katedra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Studiji </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022./23. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">npr 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">datum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P: XY S: XY V: XY </t>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t xml:space="preserve">KAT - 01 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t xml:space="preserve">Studiji naziv </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t xml:space="preserve">2022./23. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t xml:space="preserve">12 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t xml:space="preserve"> datum </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P:</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> S:</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <t xml:space="preserve">  V:</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>6</t>
+    </r>
   </si>
   <si>
     <t>Redni broj</t>
@@ -99,31 +166,215 @@
     <t>vjež</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>UKUPNO</t>
+    <t>1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>Ime Prezime1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>redoviti profesor u trajnom zvanju</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>PUNI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>0</t>
+    </r>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">Prodekanica za nastavu i studentska pitanja
-            Prof. dr. sc.  Ime Prezime </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dekan
-            Prof. dr. sc. Ime Prezime </t>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>Ime Prezime2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>KUMUL. 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>Ime Prezime3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>redoviti profesor</t>
+    </r>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>Ime Prezime4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>izvanredni profesor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>Ime Prezime5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>undefined</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>UKUPNO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prodekan za financije i upravljanje 
+ Prof. dr. sc. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t xml:space="preserve">Ime Prezime </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prodekanica za nastavu i studentska pitanja 
+ Prof. dr. sc.</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t xml:space="preserve">Ime Prezime
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dekan 
+   Prof. dr. sc.</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="00FF0000"/>
+      </rPr>
+      <t xml:space="preserve"> Ime Prezime </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -131,16 +382,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <color rgb="#FF0000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor rgb="D3D3D3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -148,12 +410,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="#000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="#000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="#000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="#000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="#000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="#000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="#000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="#000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +813,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:N35"/>
+  <dimension ref="A5:N29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="2" max="4" width="21.11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -502,239 +825,358 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" ht="50" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12"/>
-      <c r="C12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13"/>
-      <c r="C13" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="I13" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" t="s">
+    <row r="16" ht="50" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="11:14" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
       <c r="B28"/>
       <c r="C28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="J34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K34"/>
-      <c r="L34"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A6:I11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="A15:A16"/>
@@ -745,10 +1187,10 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C25"/>
     <mergeCell ref="A28:C29"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="J34:L35"/>
+    <mergeCell ref="J28:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/server/nalog.xlsx
+++ b/server/nalog.xlsx
@@ -353,8 +353,7 @@
       <rPr>
         <color rgb="00FF0000"/>
       </rPr>
-      <t xml:space="preserve">Ime Prezime
- </t>
+      <t xml:space="preserve"> Ime Prezime </t>
     </r>
   </si>
   <si>
@@ -489,6 +488,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>384000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1151,11 +1199,11 @@
       <c r="C25" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
       <c r="J28" s="6" t="s">
         <v>54</v>
       </c>
@@ -1163,9 +1211,9 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1194,5 +1242,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/server/nalog.xlsx
+++ b/server/nalog.xlsx
@@ -17,9 +17,6 @@
       <t>Predmet:</t>
     </r>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t xml:space="preserve"> Puni naziv predmeta PRE101</t>
     </r>
   </si>
@@ -59,41 +56,26 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t xml:space="preserve">KAT - 01 </t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t xml:space="preserve">Studiji naziv </t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t xml:space="preserve">2022./23. </t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t xml:space="preserve">12 </t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t xml:space="preserve"> datum </t>
     </r>
   </si>
@@ -102,27 +84,18 @@
       <t>P:</t>
     </r>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>5</t>
     </r>
     <r>
       <t xml:space="preserve"> S:</t>
     </r>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>3</t>
     </r>
     <r>
       <t xml:space="preserve">  V:</t>
     </r>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>6</t>
     </r>
   </si>
@@ -170,41 +143,26 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>Ime Prezime1</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>redoviti profesor u trajnom zvanju</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>PUNI</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>3</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>0</t>
     </r>
   </si>
@@ -213,33 +171,21 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>Ime Prezime2</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>KUMUL. 50%</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>1</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>2</t>
     </r>
   </si>
@@ -248,17 +194,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>Ime Prezime3</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>redoviti profesor</t>
     </r>
   </si>
@@ -267,25 +207,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>Ime Prezime4</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>izvanredni profesor</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>4</t>
     </r>
   </si>
@@ -294,17 +225,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>Ime Prezime5</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>undefined</t>
     </r>
   </si>
@@ -318,17 +243,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>5</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t>6</t>
     </r>
   </si>
@@ -338,9 +257,6 @@
  Prof. dr. sc. </t>
     </r>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t xml:space="preserve">Ime Prezime </t>
     </r>
   </si>
@@ -350,9 +266,6 @@
  Prof. dr. sc.</t>
     </r>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t xml:space="preserve"> Ime Prezime </t>
     </r>
   </si>
@@ -362,9 +275,6 @@
    Prof. dr. sc.</t>
     </r>
     <r>
-      <rPr>
-        <color rgb="00FF0000"/>
-      </rPr>
       <t xml:space="preserve"> Ime Prezime </t>
     </r>
   </si>
@@ -373,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -383,9 +293,6 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <color rgb="#FF0000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -401,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -425,11 +332,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="#000000"/>
+      </left>
       <right/>
       <top style="thick">
         <color rgb="#000000"/>
       </top>
+      <bottom style="thick">
+        <color rgb="#000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="#000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="#000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="solid">
+        <color rgb="#000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="#000000"/>
+      </right>
+      <top/>
       <bottom style="thick">
         <color rgb="#000000"/>
       </bottom>
@@ -441,6 +374,30 @@
         <color rgb="#000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="#000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="#000000"/>
+      </top>
+      <bottom style="medum">
+        <color rgb="#000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="#000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="#000000"/>
+      </top>
       <bottom style="thick">
         <color rgb="#000000"/>
       </bottom>
@@ -450,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -458,20 +415,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,7 +466,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>384000</xdr:colOff>
+      <xdr:colOff>192000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -965,7 +936,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -976,7 +947,7 @@
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -985,10 +956,11 @@
       <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1055,168 +1027,211 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="11" t="s">
         <v>51</v>
       </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="11:14" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="J28" s="6" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="J28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
